--- a/utils/Book1.xlsx
+++ b/utils/Book1.xlsx
@@ -1926,6 +1926,6406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>262</v>
+      </c>
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>263</v>
+      </c>
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>265</v>
+      </c>
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>266</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>267</v>
+      </c>
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>268</v>
+      </c>
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>269</v>
+      </c>
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>270</v>
+      </c>
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>271</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>272</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>276</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>277</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>279</v>
+      </c>
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>280</v>
+      </c>
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>281</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>282</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>283</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>285</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>286</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>287</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>288</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>289</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>290</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>291</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>293</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>298</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>299</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>300</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>301</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>302</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>303</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>304</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>305</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>306</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>307</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>308</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>309</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>310</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>311</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>312</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>313</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>314</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>315</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>316</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>317</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>318</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>319</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>320</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>321</v>
+      </c>
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>322</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>323</v>
+      </c>
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>324</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>325</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>326</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>327</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>328</v>
+      </c>
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>329</v>
+      </c>
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>330</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>331</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>332</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>333</v>
+      </c>
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>334</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>335</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>336</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>337</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>338</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>339</v>
+      </c>
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>340</v>
+      </c>
+      <c r="B340" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>341</v>
+      </c>
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>342</v>
+      </c>
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>343</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>344</v>
+      </c>
+      <c r="B344" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>345</v>
+      </c>
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>346</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>347</v>
+      </c>
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>348</v>
+      </c>
+      <c r="B348" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>349</v>
+      </c>
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>350</v>
+      </c>
+      <c r="B350" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>351</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>352</v>
+      </c>
+      <c r="B352" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>353</v>
+      </c>
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>354</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>355</v>
+      </c>
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>356</v>
+      </c>
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>360</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>362</v>
+      </c>
+      <c r="B362" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>363</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>364</v>
+      </c>
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>365</v>
+      </c>
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>366</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>368</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>369</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>382</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>383</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>384</v>
+      </c>
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>385</v>
+      </c>
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>388</v>
+      </c>
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>389</v>
+      </c>
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>390</v>
+      </c>
+      <c r="B390" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>392</v>
+      </c>
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>393</v>
+      </c>
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>394</v>
+      </c>
+      <c r="B394" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>412</v>
+      </c>
+      <c r="B412" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>413</v>
+      </c>
+      <c r="B413" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>414</v>
+      </c>
+      <c r="B414" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>415</v>
+      </c>
+      <c r="B415" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>416</v>
+      </c>
+      <c r="B416" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>417</v>
+      </c>
+      <c r="B417" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>418</v>
+      </c>
+      <c r="B418" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>419</v>
+      </c>
+      <c r="B419" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>420</v>
+      </c>
+      <c r="B420" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>421</v>
+      </c>
+      <c r="B421" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>422</v>
+      </c>
+      <c r="B422" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>423</v>
+      </c>
+      <c r="B423" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>424</v>
+      </c>
+      <c r="B424" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>425</v>
+      </c>
+      <c r="B425" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>426</v>
+      </c>
+      <c r="B426" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>427</v>
+      </c>
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>428</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>429</v>
+      </c>
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>430</v>
+      </c>
+      <c r="B430" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>431</v>
+      </c>
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>432</v>
+      </c>
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>433</v>
+      </c>
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>434</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435">
+        <v>435</v>
+      </c>
+      <c r="B435" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436">
+        <v>436</v>
+      </c>
+      <c r="B436" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437">
+        <v>437</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438">
+        <v>438</v>
+      </c>
+      <c r="B438" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439">
+        <v>439</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440">
+        <v>440</v>
+      </c>
+      <c r="B440" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441">
+        <v>441</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442">
+        <v>442</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443">
+        <v>443</v>
+      </c>
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444">
+        <v>444</v>
+      </c>
+      <c r="B444" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445">
+        <v>445</v>
+      </c>
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446">
+        <v>446</v>
+      </c>
+      <c r="B446" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447">
+        <v>447</v>
+      </c>
+      <c r="B447" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448">
+        <v>448</v>
+      </c>
+      <c r="B448" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449">
+        <v>449</v>
+      </c>
+      <c r="B449" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450">
+        <v>450</v>
+      </c>
+      <c r="B450" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451">
+        <v>451</v>
+      </c>
+      <c r="B451" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452">
+        <v>452</v>
+      </c>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453">
+        <v>453</v>
+      </c>
+      <c r="B453" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454">
+        <v>454</v>
+      </c>
+      <c r="B454" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455">
+        <v>455</v>
+      </c>
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456">
+        <v>456</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457">
+        <v>457</v>
+      </c>
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458">
+        <v>458</v>
+      </c>
+      <c r="B458" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459">
+        <v>459</v>
+      </c>
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460">
+        <v>460</v>
+      </c>
+      <c r="B460" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461">
+        <v>461</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462">
+        <v>462</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463">
+        <v>463</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464">
+        <v>464</v>
+      </c>
+      <c r="B464" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465">
+        <v>465</v>
+      </c>
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466">
+        <v>466</v>
+      </c>
+      <c r="B466" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467">
+        <v>467</v>
+      </c>
+      <c r="B467" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468">
+        <v>468</v>
+      </c>
+      <c r="B468" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469">
+        <v>469</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470">
+        <v>470</v>
+      </c>
+      <c r="B470" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471">
+        <v>471</v>
+      </c>
+      <c r="B471" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472">
+        <v>472</v>
+      </c>
+      <c r="B472" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473">
+        <v>473</v>
+      </c>
+      <c r="B473" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474">
+        <v>474</v>
+      </c>
+      <c r="B474" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475">
+        <v>475</v>
+      </c>
+      <c r="B475" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476">
+        <v>476</v>
+      </c>
+      <c r="B476" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477">
+        <v>477</v>
+      </c>
+      <c r="B477" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478">
+        <v>478</v>
+      </c>
+      <c r="B478" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479">
+        <v>479</v>
+      </c>
+      <c r="B479" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480">
+        <v>480</v>
+      </c>
+      <c r="B480" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481">
+        <v>481</v>
+      </c>
+      <c r="B481" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482">
+        <v>482</v>
+      </c>
+      <c r="B482" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483">
+        <v>483</v>
+      </c>
+      <c r="B483" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484">
+        <v>484</v>
+      </c>
+      <c r="B484" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485">
+        <v>485</v>
+      </c>
+      <c r="B485" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486">
+        <v>486</v>
+      </c>
+      <c r="B486" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487">
+        <v>487</v>
+      </c>
+      <c r="B487" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488">
+        <v>488</v>
+      </c>
+      <c r="B488" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489">
+        <v>489</v>
+      </c>
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490">
+        <v>490</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491">
+        <v>491</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492">
+        <v>492</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493">
+        <v>493</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494">
+        <v>494</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495">
+        <v>495</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496">
+        <v>496</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497">
+        <v>497</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498">
+        <v>498</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499">
+        <v>499</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500">
+        <v>500</v>
+      </c>
+      <c r="B500" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501">
+        <v>501</v>
+      </c>
+      <c r="B501" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502">
+        <v>502</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503">
+        <v>503</v>
+      </c>
+      <c r="B503" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504">
+        <v>504</v>
+      </c>
+      <c r="B504" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505">
+        <v>505</v>
+      </c>
+      <c r="B505" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506">
+        <v>506</v>
+      </c>
+      <c r="B506" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507">
+        <v>507</v>
+      </c>
+      <c r="B507" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508">
+        <v>508</v>
+      </c>
+      <c r="B508" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509">
+        <v>509</v>
+      </c>
+      <c r="B509" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510">
+        <v>510</v>
+      </c>
+      <c r="B510" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511">
+        <v>511</v>
+      </c>
+      <c r="B511" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512">
+        <v>512</v>
+      </c>
+      <c r="B512" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513">
+        <v>513</v>
+      </c>
+      <c r="B513" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514">
+        <v>514</v>
+      </c>
+      <c r="B514" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515">
+        <v>515</v>
+      </c>
+      <c r="B515" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516">
+        <v>516</v>
+      </c>
+      <c r="B516" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517">
+        <v>517</v>
+      </c>
+      <c r="B517" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518">
+        <v>518</v>
+      </c>
+      <c r="B518" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519">
+        <v>519</v>
+      </c>
+      <c r="B519" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520">
+        <v>520</v>
+      </c>
+      <c r="B520" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521">
+        <v>521</v>
+      </c>
+      <c r="B521" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522">
+        <v>522</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523">
+        <v>523</v>
+      </c>
+      <c r="B523" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524">
+        <v>524</v>
+      </c>
+      <c r="B524" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525">
+        <v>525</v>
+      </c>
+      <c r="B525" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526">
+        <v>526</v>
+      </c>
+      <c r="B526" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527">
+        <v>527</v>
+      </c>
+      <c r="B527" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528">
+        <v>528</v>
+      </c>
+      <c r="B528" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529">
+        <v>529</v>
+      </c>
+      <c r="B529" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530">
+        <v>530</v>
+      </c>
+      <c r="B530" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531">
+        <v>531</v>
+      </c>
+      <c r="B531" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532">
+        <v>532</v>
+      </c>
+      <c r="B532" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533">
+        <v>533</v>
+      </c>
+      <c r="B533" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534">
+        <v>534</v>
+      </c>
+      <c r="B534" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535">
+        <v>535</v>
+      </c>
+      <c r="B535" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536">
+        <v>536</v>
+      </c>
+      <c r="B536" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537">
+        <v>537</v>
+      </c>
+      <c r="B537" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538">
+        <v>538</v>
+      </c>
+      <c r="B538" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539">
+        <v>539</v>
+      </c>
+      <c r="B539" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540">
+        <v>540</v>
+      </c>
+      <c r="B540" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541">
+        <v>541</v>
+      </c>
+      <c r="B541" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542">
+        <v>542</v>
+      </c>
+      <c r="B542" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543">
+        <v>543</v>
+      </c>
+      <c r="B543" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544">
+        <v>544</v>
+      </c>
+      <c r="B544" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545">
+        <v>545</v>
+      </c>
+      <c r="B545" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546">
+        <v>546</v>
+      </c>
+      <c r="B546" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547">
+        <v>547</v>
+      </c>
+      <c r="B547" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548">
+        <v>548</v>
+      </c>
+      <c r="B548" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549">
+        <v>549</v>
+      </c>
+      <c r="B549" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550">
+        <v>550</v>
+      </c>
+      <c r="B550" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551">
+        <v>551</v>
+      </c>
+      <c r="B551" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552">
+        <v>552</v>
+      </c>
+      <c r="B552" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553">
+        <v>553</v>
+      </c>
+      <c r="B553" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554">
+        <v>554</v>
+      </c>
+      <c r="B554" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555">
+        <v>555</v>
+      </c>
+      <c r="B555" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556">
+        <v>556</v>
+      </c>
+      <c r="B556" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557">
+        <v>557</v>
+      </c>
+      <c r="B557" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558">
+        <v>558</v>
+      </c>
+      <c r="B558" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559">
+        <v>559</v>
+      </c>
+      <c r="B559" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560">
+        <v>560</v>
+      </c>
+      <c r="B560" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561">
+        <v>561</v>
+      </c>
+      <c r="B561" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562">
+        <v>562</v>
+      </c>
+      <c r="B562" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563">
+        <v>563</v>
+      </c>
+      <c r="B563" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564">
+        <v>564</v>
+      </c>
+      <c r="B564" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565">
+        <v>565</v>
+      </c>
+      <c r="B565" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566">
+        <v>566</v>
+      </c>
+      <c r="B566" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567">
+        <v>567</v>
+      </c>
+      <c r="B567" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568">
+        <v>568</v>
+      </c>
+      <c r="B568" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569">
+        <v>569</v>
+      </c>
+      <c r="B569" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570">
+        <v>570</v>
+      </c>
+      <c r="B570" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571">
+        <v>571</v>
+      </c>
+      <c r="B571" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572">
+        <v>572</v>
+      </c>
+      <c r="B572" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573">
+        <v>573</v>
+      </c>
+      <c r="B573" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574">
+        <v>574</v>
+      </c>
+      <c r="B574" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575">
+        <v>575</v>
+      </c>
+      <c r="B575" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576">
+        <v>576</v>
+      </c>
+      <c r="B576" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577">
+        <v>577</v>
+      </c>
+      <c r="B577" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578">
+        <v>578</v>
+      </c>
+      <c r="B578" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579">
+        <v>579</v>
+      </c>
+      <c r="B579" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580">
+        <v>580</v>
+      </c>
+      <c r="B580" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581">
+        <v>581</v>
+      </c>
+      <c r="B581" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582">
+        <v>582</v>
+      </c>
+      <c r="B582" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583">
+        <v>583</v>
+      </c>
+      <c r="B583" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584">
+        <v>584</v>
+      </c>
+      <c r="B584" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585">
+        <v>585</v>
+      </c>
+      <c r="B585" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586">
+        <v>586</v>
+      </c>
+      <c r="B586" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587">
+        <v>587</v>
+      </c>
+      <c r="B587" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588">
+        <v>588</v>
+      </c>
+      <c r="B588" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589">
+        <v>589</v>
+      </c>
+      <c r="B589" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590">
+        <v>590</v>
+      </c>
+      <c r="B590" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591">
+        <v>591</v>
+      </c>
+      <c r="B591" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592">
+        <v>592</v>
+      </c>
+      <c r="B592" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593">
+        <v>593</v>
+      </c>
+      <c r="B593" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594">
+        <v>594</v>
+      </c>
+      <c r="B594" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595">
+        <v>595</v>
+      </c>
+      <c r="B595" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596">
+        <v>596</v>
+      </c>
+      <c r="B596" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597">
+        <v>597</v>
+      </c>
+      <c r="B597" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598">
+        <v>598</v>
+      </c>
+      <c r="B598" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599">
+        <v>599</v>
+      </c>
+      <c r="B599" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600">
+        <v>600</v>
+      </c>
+      <c r="B600" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601">
+        <v>601</v>
+      </c>
+      <c r="B601" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602">
+        <v>602</v>
+      </c>
+      <c r="B602" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603">
+        <v>603</v>
+      </c>
+      <c r="B603" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604">
+        <v>604</v>
+      </c>
+      <c r="B604" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605">
+        <v>605</v>
+      </c>
+      <c r="B605" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606">
+        <v>606</v>
+      </c>
+      <c r="B606" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607">
+        <v>607</v>
+      </c>
+      <c r="B607" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608">
+        <v>608</v>
+      </c>
+      <c r="B608" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609">
+        <v>609</v>
+      </c>
+      <c r="B609" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610">
+        <v>610</v>
+      </c>
+      <c r="B610" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611">
+        <v>611</v>
+      </c>
+      <c r="B611" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612">
+        <v>612</v>
+      </c>
+      <c r="B612" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613">
+        <v>613</v>
+      </c>
+      <c r="B613" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614">
+        <v>614</v>
+      </c>
+      <c r="B614" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615">
+        <v>615</v>
+      </c>
+      <c r="B615" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616">
+        <v>616</v>
+      </c>
+      <c r="B616" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617">
+        <v>617</v>
+      </c>
+      <c r="B617" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618">
+        <v>618</v>
+      </c>
+      <c r="B618" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619">
+        <v>619</v>
+      </c>
+      <c r="B619" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620">
+        <v>620</v>
+      </c>
+      <c r="B620" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621">
+        <v>621</v>
+      </c>
+      <c r="B621" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622">
+        <v>622</v>
+      </c>
+      <c r="B622" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623">
+        <v>623</v>
+      </c>
+      <c r="B623" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624">
+        <v>624</v>
+      </c>
+      <c r="B624" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625">
+        <v>625</v>
+      </c>
+      <c r="B625" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626">
+        <v>626</v>
+      </c>
+      <c r="B626" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627">
+        <v>627</v>
+      </c>
+      <c r="B627" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628">
+        <v>628</v>
+      </c>
+      <c r="B628" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629">
+        <v>629</v>
+      </c>
+      <c r="B629" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630">
+        <v>630</v>
+      </c>
+      <c r="B630" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631">
+        <v>631</v>
+      </c>
+      <c r="B631" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632">
+        <v>632</v>
+      </c>
+      <c r="B632" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633">
+        <v>633</v>
+      </c>
+      <c r="B633" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634">
+        <v>634</v>
+      </c>
+      <c r="B634" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635">
+        <v>635</v>
+      </c>
+      <c r="B635" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636">
+        <v>636</v>
+      </c>
+      <c r="B636" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637">
+        <v>637</v>
+      </c>
+      <c r="B637" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638">
+        <v>638</v>
+      </c>
+      <c r="B638" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639">
+        <v>639</v>
+      </c>
+      <c r="B639" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640">
+        <v>640</v>
+      </c>
+      <c r="B640" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641">
+        <v>641</v>
+      </c>
+      <c r="B641" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642">
+        <v>642</v>
+      </c>
+      <c r="B642" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643">
+        <v>643</v>
+      </c>
+      <c r="B643" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644">
+        <v>644</v>
+      </c>
+      <c r="B644" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645">
+        <v>645</v>
+      </c>
+      <c r="B645" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646">
+        <v>646</v>
+      </c>
+      <c r="B646" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647">
+        <v>647</v>
+      </c>
+      <c r="B647" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648">
+        <v>648</v>
+      </c>
+      <c r="B648" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649">
+        <v>649</v>
+      </c>
+      <c r="B649" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650">
+        <v>650</v>
+      </c>
+      <c r="B650" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651">
+        <v>651</v>
+      </c>
+      <c r="B651" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652">
+        <v>652</v>
+      </c>
+      <c r="B652" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653">
+        <v>653</v>
+      </c>
+      <c r="B653" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654">
+        <v>654</v>
+      </c>
+      <c r="B654" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655">
+        <v>655</v>
+      </c>
+      <c r="B655" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656">
+        <v>656</v>
+      </c>
+      <c r="B656" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657">
+        <v>657</v>
+      </c>
+      <c r="B657" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658">
+        <v>658</v>
+      </c>
+      <c r="B658" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659">
+        <v>659</v>
+      </c>
+      <c r="B659" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660">
+        <v>660</v>
+      </c>
+      <c r="B660" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661">
+        <v>661</v>
+      </c>
+      <c r="B661" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662">
+        <v>662</v>
+      </c>
+      <c r="B662" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663">
+        <v>663</v>
+      </c>
+      <c r="B663" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664">
+        <v>664</v>
+      </c>
+      <c r="B664" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665">
+        <v>665</v>
+      </c>
+      <c r="B665" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666">
+        <v>666</v>
+      </c>
+      <c r="B666" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667">
+        <v>667</v>
+      </c>
+      <c r="B667" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668">
+        <v>668</v>
+      </c>
+      <c r="B668" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669">
+        <v>669</v>
+      </c>
+      <c r="B669" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670">
+        <v>670</v>
+      </c>
+      <c r="B670" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671">
+        <v>671</v>
+      </c>
+      <c r="B671" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672">
+        <v>672</v>
+      </c>
+      <c r="B672" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673">
+        <v>673</v>
+      </c>
+      <c r="B673" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674">
+        <v>674</v>
+      </c>
+      <c r="B674" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675">
+        <v>675</v>
+      </c>
+      <c r="B675" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676">
+        <v>676</v>
+      </c>
+      <c r="B676" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677">
+        <v>677</v>
+      </c>
+      <c r="B677" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678">
+        <v>678</v>
+      </c>
+      <c r="B678" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679">
+        <v>679</v>
+      </c>
+      <c r="B679" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680">
+        <v>680</v>
+      </c>
+      <c r="B680" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681">
+        <v>681</v>
+      </c>
+      <c r="B681" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682">
+        <v>682</v>
+      </c>
+      <c r="B682" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683">
+        <v>683</v>
+      </c>
+      <c r="B683" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684">
+        <v>684</v>
+      </c>
+      <c r="B684" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685">
+        <v>685</v>
+      </c>
+      <c r="B685" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686">
+        <v>686</v>
+      </c>
+      <c r="B686" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687">
+        <v>687</v>
+      </c>
+      <c r="B687" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688">
+        <v>688</v>
+      </c>
+      <c r="B688" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689">
+        <v>689</v>
+      </c>
+      <c r="B689" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690">
+        <v>690</v>
+      </c>
+      <c r="B690" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691">
+        <v>691</v>
+      </c>
+      <c r="B691" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692">
+        <v>692</v>
+      </c>
+      <c r="B692" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693">
+        <v>693</v>
+      </c>
+      <c r="B693" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694">
+        <v>694</v>
+      </c>
+      <c r="B694" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695">
+        <v>695</v>
+      </c>
+      <c r="B695" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696">
+        <v>696</v>
+      </c>
+      <c r="B696" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697">
+        <v>697</v>
+      </c>
+      <c r="B697" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698">
+        <v>698</v>
+      </c>
+      <c r="B698" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699">
+        <v>699</v>
+      </c>
+      <c r="B699" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700">
+        <v>700</v>
+      </c>
+      <c r="B700" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701">
+        <v>701</v>
+      </c>
+      <c r="B701" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702">
+        <v>702</v>
+      </c>
+      <c r="B702" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703">
+        <v>703</v>
+      </c>
+      <c r="B703" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704">
+        <v>704</v>
+      </c>
+      <c r="B704" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705">
+        <v>705</v>
+      </c>
+      <c r="B705" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706">
+        <v>706</v>
+      </c>
+      <c r="B706" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707">
+        <v>707</v>
+      </c>
+      <c r="B707" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708">
+        <v>708</v>
+      </c>
+      <c r="B708" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709">
+        <v>709</v>
+      </c>
+      <c r="B709" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710">
+        <v>710</v>
+      </c>
+      <c r="B710" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711">
+        <v>711</v>
+      </c>
+      <c r="B711" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712">
+        <v>712</v>
+      </c>
+      <c r="B712" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713">
+        <v>713</v>
+      </c>
+      <c r="B713" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714">
+        <v>714</v>
+      </c>
+      <c r="B714" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715">
+        <v>715</v>
+      </c>
+      <c r="B715" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716">
+        <v>716</v>
+      </c>
+      <c r="B716" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717">
+        <v>717</v>
+      </c>
+      <c r="B717" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718">
+        <v>718</v>
+      </c>
+      <c r="B718" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719">
+        <v>719</v>
+      </c>
+      <c r="B719" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720">
+        <v>720</v>
+      </c>
+      <c r="B720" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721">
+        <v>721</v>
+      </c>
+      <c r="B721" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722">
+        <v>722</v>
+      </c>
+      <c r="B722" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723">
+        <v>723</v>
+      </c>
+      <c r="B723" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724">
+        <v>724</v>
+      </c>
+      <c r="B724" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725">
+        <v>725</v>
+      </c>
+      <c r="B725" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726">
+        <v>726</v>
+      </c>
+      <c r="B726" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727">
+        <v>727</v>
+      </c>
+      <c r="B727" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728">
+        <v>728</v>
+      </c>
+      <c r="B728" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729">
+        <v>729</v>
+      </c>
+      <c r="B729" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730">
+        <v>730</v>
+      </c>
+      <c r="B730" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731">
+        <v>731</v>
+      </c>
+      <c r="B731" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732">
+        <v>732</v>
+      </c>
+      <c r="B732" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733">
+        <v>733</v>
+      </c>
+      <c r="B733" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734">
+        <v>734</v>
+      </c>
+      <c r="B734" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735">
+        <v>735</v>
+      </c>
+      <c r="B735" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736">
+        <v>736</v>
+      </c>
+      <c r="B736" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737">
+        <v>737</v>
+      </c>
+      <c r="B737" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738">
+        <v>738</v>
+      </c>
+      <c r="B738" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739">
+        <v>739</v>
+      </c>
+      <c r="B739" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740">
+        <v>740</v>
+      </c>
+      <c r="B740" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741">
+        <v>741</v>
+      </c>
+      <c r="B741" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742">
+        <v>742</v>
+      </c>
+      <c r="B742" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743">
+        <v>743</v>
+      </c>
+      <c r="B743" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744">
+        <v>744</v>
+      </c>
+      <c r="B744" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745">
+        <v>745</v>
+      </c>
+      <c r="B745" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746">
+        <v>746</v>
+      </c>
+      <c r="B746" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747">
+        <v>747</v>
+      </c>
+      <c r="B747" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748">
+        <v>748</v>
+      </c>
+      <c r="B748" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749">
+        <v>749</v>
+      </c>
+      <c r="B749" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750">
+        <v>750</v>
+      </c>
+      <c r="B750" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751">
+        <v>751</v>
+      </c>
+      <c r="B751" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752">
+        <v>752</v>
+      </c>
+      <c r="B752" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753">
+        <v>753</v>
+      </c>
+      <c r="B753" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754">
+        <v>754</v>
+      </c>
+      <c r="B754" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755">
+        <v>755</v>
+      </c>
+      <c r="B755" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756">
+        <v>756</v>
+      </c>
+      <c r="B756" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757">
+        <v>757</v>
+      </c>
+      <c r="B757" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758">
+        <v>758</v>
+      </c>
+      <c r="B758" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759">
+        <v>759</v>
+      </c>
+      <c r="B759" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760">
+        <v>760</v>
+      </c>
+      <c r="B760" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761">
+        <v>761</v>
+      </c>
+      <c r="B761" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762">
+        <v>762</v>
+      </c>
+      <c r="B762" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763">
+        <v>763</v>
+      </c>
+      <c r="B763" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764">
+        <v>764</v>
+      </c>
+      <c r="B764" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765">
+        <v>765</v>
+      </c>
+      <c r="B765" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766">
+        <v>766</v>
+      </c>
+      <c r="B766" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767">
+        <v>767</v>
+      </c>
+      <c r="B767" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768">
+        <v>768</v>
+      </c>
+      <c r="B768" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769">
+        <v>769</v>
+      </c>
+      <c r="B769" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770">
+        <v>770</v>
+      </c>
+      <c r="B770" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771">
+        <v>771</v>
+      </c>
+      <c r="B771" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772">
+        <v>772</v>
+      </c>
+      <c r="B772" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773">
+        <v>773</v>
+      </c>
+      <c r="B773" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774">
+        <v>774</v>
+      </c>
+      <c r="B774" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775">
+        <v>775</v>
+      </c>
+      <c r="B775" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776">
+        <v>776</v>
+      </c>
+      <c r="B776" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777">
+        <v>777</v>
+      </c>
+      <c r="B777" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778">
+        <v>778</v>
+      </c>
+      <c r="B778" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779">
+        <v>779</v>
+      </c>
+      <c r="B779" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780">
+        <v>780</v>
+      </c>
+      <c r="B780" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781">
+        <v>781</v>
+      </c>
+      <c r="B781" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782">
+        <v>782</v>
+      </c>
+      <c r="B782" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783">
+        <v>783</v>
+      </c>
+      <c r="B783" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784">
+        <v>784</v>
+      </c>
+      <c r="B784" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785">
+        <v>785</v>
+      </c>
+      <c r="B785" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786">
+        <v>786</v>
+      </c>
+      <c r="B786" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787">
+        <v>787</v>
+      </c>
+      <c r="B787" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788">
+        <v>788</v>
+      </c>
+      <c r="B788" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789">
+        <v>789</v>
+      </c>
+      <c r="B789" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790">
+        <v>790</v>
+      </c>
+      <c r="B790" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791">
+        <v>791</v>
+      </c>
+      <c r="B791" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792">
+        <v>792</v>
+      </c>
+      <c r="B792" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793">
+        <v>793</v>
+      </c>
+      <c r="B793" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794">
+        <v>794</v>
+      </c>
+      <c r="B794" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795">
+        <v>795</v>
+      </c>
+      <c r="B795" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796">
+        <v>796</v>
+      </c>
+      <c r="B796" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797">
+        <v>797</v>
+      </c>
+      <c r="B797" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798">
+        <v>798</v>
+      </c>
+      <c r="B798" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799">
+        <v>799</v>
+      </c>
+      <c r="B799" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800">
+        <v>800</v>
+      </c>
+      <c r="B800" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801">
+        <v>801</v>
+      </c>
+      <c r="B801" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802">
+        <v>802</v>
+      </c>
+      <c r="B802" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803">
+        <v>803</v>
+      </c>
+      <c r="B803" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804">
+        <v>804</v>
+      </c>
+      <c r="B804" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805">
+        <v>805</v>
+      </c>
+      <c r="B805" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806">
+        <v>806</v>
+      </c>
+      <c r="B806" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807">
+        <v>807</v>
+      </c>
+      <c r="B807" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808">
+        <v>808</v>
+      </c>
+      <c r="B808" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809">
+        <v>809</v>
+      </c>
+      <c r="B809" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810">
+        <v>810</v>
+      </c>
+      <c r="B810" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811">
+        <v>811</v>
+      </c>
+      <c r="B811" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812">
+        <v>812</v>
+      </c>
+      <c r="B812" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813">
+        <v>813</v>
+      </c>
+      <c r="B813" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814">
+        <v>814</v>
+      </c>
+      <c r="B814" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815">
+        <v>815</v>
+      </c>
+      <c r="B815" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816">
+        <v>816</v>
+      </c>
+      <c r="B816" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817">
+        <v>817</v>
+      </c>
+      <c r="B817" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818">
+        <v>818</v>
+      </c>
+      <c r="B818" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819">
+        <v>819</v>
+      </c>
+      <c r="B819" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820">
+        <v>820</v>
+      </c>
+      <c r="B820" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821">
+        <v>821</v>
+      </c>
+      <c r="B821" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822">
+        <v>822</v>
+      </c>
+      <c r="B822" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823">
+        <v>823</v>
+      </c>
+      <c r="B823" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824">
+        <v>824</v>
+      </c>
+      <c r="B824" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825">
+        <v>825</v>
+      </c>
+      <c r="B825" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826">
+        <v>826</v>
+      </c>
+      <c r="B826" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827">
+        <v>827</v>
+      </c>
+      <c r="B827" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828">
+        <v>828</v>
+      </c>
+      <c r="B828" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829">
+        <v>829</v>
+      </c>
+      <c r="B829" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830">
+        <v>830</v>
+      </c>
+      <c r="B830" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831">
+        <v>831</v>
+      </c>
+      <c r="B831" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832">
+        <v>832</v>
+      </c>
+      <c r="B832" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833">
+        <v>833</v>
+      </c>
+      <c r="B833" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834">
+        <v>834</v>
+      </c>
+      <c r="B834" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835">
+        <v>835</v>
+      </c>
+      <c r="B835" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836">
+        <v>836</v>
+      </c>
+      <c r="B836" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837">
+        <v>837</v>
+      </c>
+      <c r="B837" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838">
+        <v>838</v>
+      </c>
+      <c r="B838" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839">
+        <v>839</v>
+      </c>
+      <c r="B839" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840">
+        <v>840</v>
+      </c>
+      <c r="B840" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841">
+        <v>841</v>
+      </c>
+      <c r="B841" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842">
+        <v>842</v>
+      </c>
+      <c r="B842" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843">
+        <v>843</v>
+      </c>
+      <c r="B843" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844">
+        <v>844</v>
+      </c>
+      <c r="B844" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845">
+        <v>845</v>
+      </c>
+      <c r="B845" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846">
+        <v>846</v>
+      </c>
+      <c r="B846" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847">
+        <v>847</v>
+      </c>
+      <c r="B847" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848">
+        <v>848</v>
+      </c>
+      <c r="B848" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849">
+        <v>849</v>
+      </c>
+      <c r="B849" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850">
+        <v>850</v>
+      </c>
+      <c r="B850" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851">
+        <v>851</v>
+      </c>
+      <c r="B851" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852">
+        <v>852</v>
+      </c>
+      <c r="B852" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853">
+        <v>853</v>
+      </c>
+      <c r="B853" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854">
+        <v>854</v>
+      </c>
+      <c r="B854" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855">
+        <v>855</v>
+      </c>
+      <c r="B855" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856">
+        <v>856</v>
+      </c>
+      <c r="B856" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857">
+        <v>857</v>
+      </c>
+      <c r="B857" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858">
+        <v>858</v>
+      </c>
+      <c r="B858" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859">
+        <v>859</v>
+      </c>
+      <c r="B859" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860">
+        <v>860</v>
+      </c>
+      <c r="B860" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861">
+        <v>861</v>
+      </c>
+      <c r="B861" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862">
+        <v>862</v>
+      </c>
+      <c r="B862" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863">
+        <v>863</v>
+      </c>
+      <c r="B863" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864">
+        <v>864</v>
+      </c>
+      <c r="B864" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865">
+        <v>865</v>
+      </c>
+      <c r="B865" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866">
+        <v>866</v>
+      </c>
+      <c r="B866" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867">
+        <v>867</v>
+      </c>
+      <c r="B867" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868">
+        <v>868</v>
+      </c>
+      <c r="B868" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869">
+        <v>869</v>
+      </c>
+      <c r="B869" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870">
+        <v>870</v>
+      </c>
+      <c r="B870" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871">
+        <v>871</v>
+      </c>
+      <c r="B871" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872">
+        <v>872</v>
+      </c>
+      <c r="B872" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873">
+        <v>873</v>
+      </c>
+      <c r="B873" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874">
+        <v>874</v>
+      </c>
+      <c r="B874" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875">
+        <v>875</v>
+      </c>
+      <c r="B875" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876">
+        <v>876</v>
+      </c>
+      <c r="B876" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877">
+        <v>877</v>
+      </c>
+      <c r="B877" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878">
+        <v>878</v>
+      </c>
+      <c r="B878" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879">
+        <v>879</v>
+      </c>
+      <c r="B879" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880">
+        <v>880</v>
+      </c>
+      <c r="B880" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881">
+        <v>881</v>
+      </c>
+      <c r="B881" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882">
+        <v>882</v>
+      </c>
+      <c r="B882" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883">
+        <v>883</v>
+      </c>
+      <c r="B883" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884">
+        <v>884</v>
+      </c>
+      <c r="B884" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885">
+        <v>885</v>
+      </c>
+      <c r="B885" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886">
+        <v>886</v>
+      </c>
+      <c r="B886" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887">
+        <v>887</v>
+      </c>
+      <c r="B887" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888">
+        <v>888</v>
+      </c>
+      <c r="B888" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889">
+        <v>889</v>
+      </c>
+      <c r="B889" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890">
+        <v>890</v>
+      </c>
+      <c r="B890" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891">
+        <v>891</v>
+      </c>
+      <c r="B891" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892">
+        <v>892</v>
+      </c>
+      <c r="B892" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893">
+        <v>893</v>
+      </c>
+      <c r="B893" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894">
+        <v>894</v>
+      </c>
+      <c r="B894" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895">
+        <v>895</v>
+      </c>
+      <c r="B895" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896">
+        <v>896</v>
+      </c>
+      <c r="B896" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897">
+        <v>897</v>
+      </c>
+      <c r="B897" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898">
+        <v>898</v>
+      </c>
+      <c r="B898" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899">
+        <v>899</v>
+      </c>
+      <c r="B899" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900">
+        <v>900</v>
+      </c>
+      <c r="B900" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901">
+        <v>901</v>
+      </c>
+      <c r="B901" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902">
+        <v>902</v>
+      </c>
+      <c r="B902" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903">
+        <v>903</v>
+      </c>
+      <c r="B903" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904">
+        <v>904</v>
+      </c>
+      <c r="B904" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905">
+        <v>905</v>
+      </c>
+      <c r="B905" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906">
+        <v>906</v>
+      </c>
+      <c r="B906" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907">
+        <v>907</v>
+      </c>
+      <c r="B907" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908">
+        <v>908</v>
+      </c>
+      <c r="B908" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909">
+        <v>909</v>
+      </c>
+      <c r="B909" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910">
+        <v>910</v>
+      </c>
+      <c r="B910" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911">
+        <v>911</v>
+      </c>
+      <c r="B911" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912">
+        <v>912</v>
+      </c>
+      <c r="B912" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913">
+        <v>913</v>
+      </c>
+      <c r="B913" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914">
+        <v>914</v>
+      </c>
+      <c r="B914" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915">
+        <v>915</v>
+      </c>
+      <c r="B915" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916">
+        <v>916</v>
+      </c>
+      <c r="B916" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917">
+        <v>917</v>
+      </c>
+      <c r="B917" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918">
+        <v>918</v>
+      </c>
+      <c r="B918" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919">
+        <v>919</v>
+      </c>
+      <c r="B919" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920">
+        <v>920</v>
+      </c>
+      <c r="B920" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921">
+        <v>921</v>
+      </c>
+      <c r="B921" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922">
+        <v>922</v>
+      </c>
+      <c r="B922" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923">
+        <v>923</v>
+      </c>
+      <c r="B923" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924">
+        <v>924</v>
+      </c>
+      <c r="B924" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925">
+        <v>925</v>
+      </c>
+      <c r="B925" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926">
+        <v>926</v>
+      </c>
+      <c r="B926" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927">
+        <v>927</v>
+      </c>
+      <c r="B927" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928">
+        <v>928</v>
+      </c>
+      <c r="B928" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929">
+        <v>929</v>
+      </c>
+      <c r="B929" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930">
+        <v>930</v>
+      </c>
+      <c r="B930" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931">
+        <v>931</v>
+      </c>
+      <c r="B931" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932">
+        <v>932</v>
+      </c>
+      <c r="B932" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933">
+        <v>933</v>
+      </c>
+      <c r="B933" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934">
+        <v>934</v>
+      </c>
+      <c r="B934" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935">
+        <v>935</v>
+      </c>
+      <c r="B935" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936">
+        <v>936</v>
+      </c>
+      <c r="B936" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937">
+        <v>937</v>
+      </c>
+      <c r="B937" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938">
+        <v>938</v>
+      </c>
+      <c r="B938" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939">
+        <v>939</v>
+      </c>
+      <c r="B939" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940">
+        <v>940</v>
+      </c>
+      <c r="B940" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941">
+        <v>941</v>
+      </c>
+      <c r="B941" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942">
+        <v>942</v>
+      </c>
+      <c r="B942" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943">
+        <v>943</v>
+      </c>
+      <c r="B943" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944">
+        <v>944</v>
+      </c>
+      <c r="B944" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945">
+        <v>945</v>
+      </c>
+      <c r="B945" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946">
+        <v>946</v>
+      </c>
+      <c r="B946" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947">
+        <v>947</v>
+      </c>
+      <c r="B947" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948">
+        <v>948</v>
+      </c>
+      <c r="B948" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949">
+        <v>949</v>
+      </c>
+      <c r="B949" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950">
+        <v>950</v>
+      </c>
+      <c r="B950" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951">
+        <v>951</v>
+      </c>
+      <c r="B951" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952">
+        <v>952</v>
+      </c>
+      <c r="B952" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953">
+        <v>953</v>
+      </c>
+      <c r="B953" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954">
+        <v>954</v>
+      </c>
+      <c r="B954" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955">
+        <v>955</v>
+      </c>
+      <c r="B955" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956">
+        <v>956</v>
+      </c>
+      <c r="B956" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957">
+        <v>957</v>
+      </c>
+      <c r="B957" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958">
+        <v>958</v>
+      </c>
+      <c r="B958" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959">
+        <v>959</v>
+      </c>
+      <c r="B959" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960">
+        <v>960</v>
+      </c>
+      <c r="B960" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961">
+        <v>961</v>
+      </c>
+      <c r="B961" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962">
+        <v>962</v>
+      </c>
+      <c r="B962" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963">
+        <v>963</v>
+      </c>
+      <c r="B963" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964">
+        <v>964</v>
+      </c>
+      <c r="B964" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965">
+        <v>965</v>
+      </c>
+      <c r="B965" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966">
+        <v>966</v>
+      </c>
+      <c r="B966" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967">
+        <v>967</v>
+      </c>
+      <c r="B967" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968">
+        <v>968</v>
+      </c>
+      <c r="B968" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969">
+        <v>969</v>
+      </c>
+      <c r="B969" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970">
+        <v>970</v>
+      </c>
+      <c r="B970" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971">
+        <v>971</v>
+      </c>
+      <c r="B971" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972">
+        <v>972</v>
+      </c>
+      <c r="B972" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973">
+        <v>973</v>
+      </c>
+      <c r="B973" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974">
+        <v>974</v>
+      </c>
+      <c r="B974" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975">
+        <v>975</v>
+      </c>
+      <c r="B975" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976">
+        <v>976</v>
+      </c>
+      <c r="B976" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977">
+        <v>977</v>
+      </c>
+      <c r="B977" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978">
+        <v>978</v>
+      </c>
+      <c r="B978" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979">
+        <v>979</v>
+      </c>
+      <c r="B979" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980">
+        <v>980</v>
+      </c>
+      <c r="B980" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981">
+        <v>981</v>
+      </c>
+      <c r="B981" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982">
+        <v>982</v>
+      </c>
+      <c r="B982" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983">
+        <v>983</v>
+      </c>
+      <c r="B983" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984">
+        <v>984</v>
+      </c>
+      <c r="B984" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985">
+        <v>985</v>
+      </c>
+      <c r="B985" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986">
+        <v>986</v>
+      </c>
+      <c r="B986" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987">
+        <v>987</v>
+      </c>
+      <c r="B987" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988">
+        <v>988</v>
+      </c>
+      <c r="B988" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989">
+        <v>989</v>
+      </c>
+      <c r="B989" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990">
+        <v>990</v>
+      </c>
+      <c r="B990" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991">
+        <v>991</v>
+      </c>
+      <c r="B991" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992">
+        <v>992</v>
+      </c>
+      <c r="B992" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993">
+        <v>993</v>
+      </c>
+      <c r="B993" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994">
+        <v>994</v>
+      </c>
+      <c r="B994" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995">
+        <v>995</v>
+      </c>
+      <c r="B995" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996">
+        <v>996</v>
+      </c>
+      <c r="B996" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997">
+        <v>997</v>
+      </c>
+      <c r="B997" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998">
+        <v>998</v>
+      </c>
+      <c r="B998" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999">
+        <v>999</v>
+      </c>
+      <c r="B999" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000">
+        <v>1000</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>